--- a/week_10/Ch16_ex3_ex4.xlsx
+++ b/week_10/Ch16_ex3_ex4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usaskca1-my.sharepoint.com/personal/gal894_usask_ca/Documents/Teaching/CMPT141 Introduction to Computer Science/CMPT141 2023 Fall/CMPT141_lecture_code_2023_fall/week_10/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Desktop\CMPT141_lecture_code_2023_fall\week_10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{439086C7-B1A5-41EF-B935-FD1C3824D7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91FDFB51-1D69-0446-8D43-5BFF68002BEB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65F9321-204A-44C6-8D63-4C48A61E9205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="22380" windowWidth="29040" windowHeight="15840" xr2:uid="{76E8E2E4-B21A-004B-B045-5480963C89EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{76E8E2E4-B21A-004B-B045-5480963C89EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -82,13 +82,6 @@
       <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -125,24 +118,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -165,27 +147,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -500,24 +475,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BFFC9BC-445D-4F41-B6AC-1030B2240BDC}">
   <dimension ref="B2:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="O2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -555,7 +530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -571,7 +546,7 @@
       <c r="I4">
         <v>-39</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="2">
         <v>-29</v>
       </c>
       <c r="K4" s="3">
@@ -590,35 +565,44 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="F5" s="1"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="K5" s="3">
+        <v>-29</v>
+      </c>
+      <c r="L5" s="3">
+        <v>50</v>
+      </c>
+      <c r="M5" s="5">
+        <v>68</v>
+      </c>
+      <c r="N5" s="3">
+        <v>68</v>
+      </c>
+      <c r="O5" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="F6" s="1"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="K7" s="9"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="K6" s="5">
+        <v>-29</v>
+      </c>
+      <c r="L6" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L7" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>3</v>
       </c>
@@ -656,7 +640,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="F12">
         <v>-62</v>
       </c>
@@ -669,7 +653,7 @@
       <c r="I12">
         <v>-38</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="2">
         <v>-9</v>
       </c>
       <c r="K12">
@@ -688,12 +672,30 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="F14" s="2"/>
-      <c r="H14" s="2"/>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>-62</v>
+      </c>
+      <c r="G13" s="2">
+        <v>-62</v>
+      </c>
+      <c r="H13">
+        <v>-44</v>
+      </c>
+      <c r="I13">
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F14" s="2">
+        <v>-62</v>
+      </c>
+      <c r="H14" s="2">
+        <v>-44</v>
+      </c>
+      <c r="I14">
+        <v>-38</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
